--- a/Build/timer.xlsx
+++ b/Build/timer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="150" windowWidth="16275" windowHeight="7740"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>counter</t>
   </si>
@@ -40,16 +40,35 @@
   </si>
   <si>
     <t>(wrong!)</t>
+  </si>
+  <si>
+    <t>24hr test ntsc*</t>
+  </si>
+  <si>
+    <t>* On real NTSC Atari 130XE, 24 hours = 5177234 measured frame refreshes.</t>
+  </si>
+  <si>
+    <t>** On real PAL Atari 800XLE, 24 hours = 4308219 measured frame refreshes.</t>
+  </si>
+  <si>
+    <t>24hr test pal**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,53 +391,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <f>5177234/24/3600</f>
+        <v>59.921689814814819</v>
+      </c>
+      <c r="C2">
         <v>59.923340000000003</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>59.922699999999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>49.860700000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <f>4308219/24/3600</f>
+        <v>49.863645833333337</v>
+      </c>
+      <c r="G2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -428,113 +464,170 @@
         <v>60</v>
       </c>
       <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="B4">
         <f>B3-B2</f>
+        <v>7.8310185185181069E-2</v>
+      </c>
+      <c r="C4">
+        <f>C3-C2</f>
         <v>7.6659999999996842E-2</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:E4" si="0">C3-C2</f>
+      <c r="D4">
+        <f t="shared" ref="D4:G4" si="0">D3-D2</f>
         <v>7.7300000000001035E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>0.13929999999999865</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <f t="shared" ref="F4" si="1">F3-F2</f>
+        <v>0.13635416666666345</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="B5">
         <f>B4*60</f>
+        <v>4.6986111111108642</v>
+      </c>
+      <c r="C5">
+        <f>C4*60</f>
         <v>4.5995999999998105</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:E5" si="1">C4*60</f>
+      <c r="D5">
+        <f t="shared" ref="D5:G5" si="2">D4*60</f>
         <v>4.6380000000000621</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+      <c r="E5">
+        <f t="shared" si="2"/>
         <v>8.3579999999999188</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
+      <c r="F5">
+        <f t="shared" ref="F5" si="3">F4*60</f>
+        <v>8.1812499999998067</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="B6">
         <f>60/B5</f>
+        <v>12.769731007981752</v>
+      </c>
+      <c r="C6">
+        <f>60/C5</f>
         <v>13.04461257500706</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:E6" si="2">60/C5</f>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="4">60/D5</f>
         <v>12.936610608020526</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
+      <c r="E6">
+        <f t="shared" si="4"/>
         <v>7.1787508973439316</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
+      <c r="F6">
+        <f t="shared" ref="F6" si="5">60/F5</f>
+        <v>7.3338426279604478</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f>B6*B2</f>
+        <v>765.1838604789051</v>
+      </c>
+      <c r="C7">
+        <f>C6*C2</f>
         <v>781.67675450042361</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:E7" si="3">C6*C2</f>
+      <c r="D7">
+        <f t="shared" ref="D7:G7" si="6">D6*D2</f>
         <v>775.19663648123162</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="3"/>
+      <c r="E7">
+        <f t="shared" si="6"/>
         <v>357.93754486719661</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
+      <c r="F7">
+        <f t="shared" ref="F7" si="7">F6*F2</f>
+        <v>365.69213139802241</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>B6*B3</f>
+        <v>766.1838604789051</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C6*C3</f>
         <v>782.67675450042361</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:D8" si="4">C6*C3</f>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:E8" si="8">D6*D3</f>
         <v>776.19663648123162</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="4"/>
+      <c r="E8" s="1">
+        <f t="shared" si="8"/>
         <v>358.93754486719661</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E8" si="5">E6*E3</f>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8" si="9">F6*F3</f>
+        <v>366.69213139802241</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8" si="10">G6*G3</f>
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
